--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36802.39826880179</v>
+        <v>7322636.377922661</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36802.39826880179</v>
+        <v>7322636.377922661</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28050.52317275137</v>
+        <v>2074731.96325339</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28050.52317275137</v>
+        <v>2074731.96325339</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343807557.240369</v>
+        <v>54802014.90859039</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12972.84518827463</v>
+        <v>1416492.566157902</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23855.34918318579</v>
+        <v>2488339.941060735</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34737.85317809693</v>
+        <v>3560187.31596357</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46090.82545340675</v>
+        <v>4630924.754109285</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57445.1806812993</v>
+        <v>5701762.096370685</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68799.56650159985</v>
+        <v>6772957.987826829</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80153.50884715292</v>
+        <v>7844065.627808224</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91506.4271022781</v>
+        <v>8915173.267789619</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>103412.1506669106</v>
+        <v>9825863.72403305</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114961.1330871695</v>
+        <v>10935161.95845766</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>126314.9866185394</v>
+        <v>12005629.54399338</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>137668.8401499093</v>
+        <v>13076097.12952911</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>149022.6936812793</v>
+        <v>14146564.71506484</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>160649.9071824934</v>
+        <v>15174031.54069538</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>173006.9590314203</v>
+        <v>16113432.76158969</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>288</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>239</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>780</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
